--- a/testing/test_results.xlsx
+++ b/testing/test_results.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>time 2</t>
   </si>
@@ -49,12 +51,21 @@
   <si>
     <t>time</t>
   </si>
+  <si>
+    <t>Suffix Tree</t>
+  </si>
+  <si>
+    <t>Suffix Array</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,8 +96,27 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12.1"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,6 +126,66 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8696B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF86D6F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF87072"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF87577"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF99C9F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCFCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAC3C6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFACBCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE1E4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE8EA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -138,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -163,6 +253,48 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1150,6 +1282,2229 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>n value</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>SuffixArray - linear</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>n value</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="1">
+                  <c:v>6.5170000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.111664</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17780199999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23577600000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.30277199999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35881299999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.41991600000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47100999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.530389</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.483E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.8115999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.13545199999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21374099999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.27607199999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.351524</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.413547</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.47627900000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.54290799999999995</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.64053499999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D961-4C67-98E2-A245D99EBE55}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="326098256"/>
+        <c:axId val="326096944"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="326098256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="326096944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="326096944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="326098256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$A$1:$A$160</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="160"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2241-403F-BD06-A8DE3E9B05E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$B$160</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="160"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9820000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5810999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4019899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.9252700000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16209661110000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17753371888</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.21630081109999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25506790332000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.29383499553999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.33260208776</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.37136917998000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.41013627219999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.44890336442000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.48767045664000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.52643754886000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.56520464108000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.60397173329999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.64273882551999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.68150591774000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.72027300995999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.75904010217999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2241-403F-BD06-A8DE3E9B05E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$1:$C$160</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="160"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2241-403F-BD06-A8DE3E9B05E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="413844536"/>
+        <c:axId val="413850112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="413844536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413850112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="413850112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413844536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$A$4:$A$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="113"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B7A8-45C7-83D1-2F196DF8F071}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$B$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="113"/>
+                <c:pt idx="0">
+                  <c:v>4.9820000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5810999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4019899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9252700000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16209661110000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17753371888</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21630081109999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25506790332000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29383499553999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.33260208776</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.37136917998000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.41013627219999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.44890336442000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.48767045664000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.52643754886000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.56520464108000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.60397173329999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.64273882551999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.68150591774000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.72027300995999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.75904010217999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B7A8-45C7-83D1-2F196DF8F071}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="322442176"/>
+        <c:axId val="322440864"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="322442176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="322440864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="322440864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="322442176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Suffix</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Tree Vs Suffix Array</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Suffix Tree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$12:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>n value</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1315</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2074</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3170</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4402</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5478</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5802</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6638</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7598</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8492</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9517</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11719</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14039</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$12:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="1">
+                  <c:v>3.4202000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6045999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3795999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11471099999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13805000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15315000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16986200000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18885299999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20807100000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.23815</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.28691299999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.34822399999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0325-4BEE-B325-1DD6BA60B493}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Suffix Array</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$12:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>n value</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1315</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2074</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3170</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4402</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5478</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5802</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6638</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7598</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8492</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9517</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11719</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14039</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$12:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="1">
+                  <c:v>7.5084999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.119162</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.182477</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24064099999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28056999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.32287399999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.37455899999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.41161900000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.47430600000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.530941</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.62105100000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.70398942320000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0325-4BEE-B325-1DD6BA60B493}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="406381336"/>
+        <c:axId val="406378056"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="406381336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406378056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="406378056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406381336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Dynamic</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Programming</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$D$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$C$29:$C$42</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>n value</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1315</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2074</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3170</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4402</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5478</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5802</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6638</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7598</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8492</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9517</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11719</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14039</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$D$29:$D$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="1">
+                  <c:v>1.0189999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.062E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.098E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.145E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.354E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.683E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1540000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5409999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.967E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.532E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4640000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.1180000000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EF47-4068-9027-0B6D198FBE40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="406372480"/>
+        <c:axId val="406367560"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="406372480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406367560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="406367560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406372480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1270,6 +3625,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2465,6 +5020,2560 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2923,6 +8032,196 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC349E7A-FF80-4F8E-8297-F5FC2D63A4B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{487ECA4A-B2B3-4751-B1E4-3112467A983B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDEA5176-9F00-4AD4-9BF7-C588D57038BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E229F222-FD81-4D5D-8C8D-DA36F76D3B88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACBDC331-30AB-4A41-AEDF-728160ECC037}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3228,10 +8527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3606,6 +8905,1359 @@
         <v>0.1478691</v>
       </c>
     </row>
+    <row r="48" spans="1:2" ht="15" thickBot="1"/>
+    <row r="49" spans="1:2" ht="15" thickBot="1">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="1:2" ht="15" thickBot="1">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+    </row>
+    <row r="52" spans="1:2" ht="15" thickBot="1"/>
+    <row r="53" spans="1:2" ht="15" thickBot="1">
+      <c r="A53" s="3"/>
+      <c r="B53" s="4"/>
+    </row>
+    <row r="54" spans="1:2" ht="15" thickBot="1">
+      <c r="A54" s="3"/>
+      <c r="B54" s="4"/>
+    </row>
+    <row r="55" spans="1:2" ht="15" thickBot="1">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+    </row>
+    <row r="56" spans="1:2" ht="15" thickBot="1">
+      <c r="A56" s="3"/>
+      <c r="B56" s="4"/>
+    </row>
+    <row r="57" spans="1:2" ht="15" thickBot="1">
+      <c r="A57" s="3"/>
+      <c r="B57" s="4"/>
+    </row>
+    <row r="58" spans="1:2" ht="15" thickBot="1">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+    </row>
+    <row r="59" spans="1:2" ht="15" thickBot="1">
+      <c r="A59" s="3"/>
+      <c r="B59" s="4"/>
+    </row>
+    <row r="60" spans="1:2" ht="15" thickBot="1">
+      <c r="A60" s="3"/>
+      <c r="B60" s="4"/>
+    </row>
+    <row r="61" spans="1:2" ht="15" thickBot="1">
+      <c r="A61" s="3"/>
+      <c r="B61" s="4"/>
+    </row>
+    <row r="64" spans="1:2" ht="15" thickBot="1"/>
+    <row r="65" spans="1:2" ht="15" thickBot="1">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="66" spans="1:2" ht="15" thickBot="1">
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="1:2" ht="15" thickBot="1">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="1:2" ht="15" thickBot="1">
+      <c r="A68" s="3"/>
+      <c r="B68" s="4"/>
+    </row>
+    <row r="69" spans="1:2" ht="15" thickBot="1">
+      <c r="A69" s="3"/>
+      <c r="B69" s="4"/>
+    </row>
+    <row r="70" spans="1:2" ht="15" thickBot="1">
+      <c r="A70" s="3"/>
+      <c r="B70" s="4"/>
+    </row>
+    <row r="71" spans="1:2" ht="15" thickBot="1">
+      <c r="A71" s="3"/>
+      <c r="B71" s="8"/>
+    </row>
+    <row r="72" spans="1:2" ht="15" thickBot="1">
+      <c r="A72" s="3"/>
+      <c r="B72" s="4"/>
+    </row>
+    <row r="73" spans="1:2" ht="15" thickBot="1">
+      <c r="A73" s="3"/>
+      <c r="B73" s="4"/>
+    </row>
+    <row r="74" spans="1:2" ht="15" thickBot="1">
+      <c r="A74" s="3"/>
+      <c r="B74" s="4"/>
+    </row>
+    <row r="75" spans="1:2" ht="15" thickBot="1">
+      <c r="A75" s="3"/>
+      <c r="B75" s="4"/>
+    </row>
+    <row r="76" spans="1:2" ht="15" thickBot="1">
+      <c r="A76" s="3"/>
+      <c r="B76" s="4"/>
+    </row>
+    <row r="77" spans="1:2" ht="15" thickBot="1">
+      <c r="A77" s="3"/>
+      <c r="B77" s="4"/>
+    </row>
+    <row r="78" spans="1:2" ht="15" thickBot="1">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+    </row>
+    <row r="80" spans="1:2" ht="15" thickBot="1"/>
+    <row r="81" spans="1:2" ht="15" thickBot="1">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+    </row>
+    <row r="82" spans="1:2" ht="15" thickBot="1">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="1:2" ht="15" thickBot="1">
+      <c r="A83" s="3"/>
+      <c r="B83" s="4"/>
+    </row>
+    <row r="84" spans="1:2" ht="15" thickBot="1">
+      <c r="A84" s="3"/>
+      <c r="B84" s="4"/>
+    </row>
+    <row r="85" spans="1:2" ht="15" thickBot="1">
+      <c r="A85" s="3"/>
+      <c r="B85" s="4"/>
+    </row>
+    <row r="86" spans="1:2" ht="15" thickBot="1">
+      <c r="A86" s="3"/>
+      <c r="B86" s="4"/>
+    </row>
+    <row r="87" spans="1:2" ht="15" thickBot="1">
+      <c r="A87" s="3"/>
+      <c r="B87" s="4"/>
+    </row>
+    <row r="88" spans="1:2" ht="15" thickBot="1">
+      <c r="A88" s="3"/>
+      <c r="B88" s="4"/>
+    </row>
+    <row r="89" spans="1:2" ht="15" thickBot="1">
+      <c r="A89" s="3"/>
+      <c r="B89" s="4"/>
+    </row>
+    <row r="90" spans="1:2" ht="15" thickBot="1">
+      <c r="A90" s="3"/>
+      <c r="B90" s="4"/>
+    </row>
+    <row r="91" spans="1:2" ht="15" thickBot="1">
+      <c r="A91" s="3"/>
+      <c r="B91" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C160"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" ht="15" thickBot="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A4" s="10">
+        <v>2000</v>
+      </c>
+      <c r="B4" s="11">
+        <v>4.9820000000000003E-3</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A5" s="10">
+        <v>4000</v>
+      </c>
+      <c r="B5" s="11">
+        <v>1.5810999999999999E-2</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A6" s="10">
+        <v>6000</v>
+      </c>
+      <c r="B6" s="11">
+        <v>3.4019899999999999E-2</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A7" s="10">
+        <v>8000</v>
+      </c>
+      <c r="B7" s="11">
+        <v>8.9252700000000004E-2</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A8" s="10">
+        <v>10000</v>
+      </c>
+      <c r="B8" s="11">
+        <v>0.16209661110000001</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A9" s="10">
+        <v>12000</v>
+      </c>
+      <c r="B9" s="11">
+        <v>0.17753371888</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A10" s="10">
+        <v>14000</v>
+      </c>
+      <c r="B10" s="11">
+        <v>0.21630081109999999</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A11" s="10">
+        <v>16000</v>
+      </c>
+      <c r="B11" s="11">
+        <v>0.25506790332000001</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A12" s="10">
+        <v>18000</v>
+      </c>
+      <c r="B12" s="11">
+        <v>0.29383499553999998</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A13" s="10">
+        <v>20000</v>
+      </c>
+      <c r="B13" s="11">
+        <v>0.33260208776</v>
+      </c>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A14" s="10">
+        <v>22000</v>
+      </c>
+      <c r="B14" s="11">
+        <v>0.37136917998000002</v>
+      </c>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A15" s="10">
+        <v>24000</v>
+      </c>
+      <c r="B15" s="11">
+        <v>0.41013627219999998</v>
+      </c>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A16" s="10">
+        <v>26000</v>
+      </c>
+      <c r="B16" s="11">
+        <v>0.44890336442000001</v>
+      </c>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A17" s="10">
+        <v>28000</v>
+      </c>
+      <c r="B17" s="11">
+        <v>0.48767045664000003</v>
+      </c>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A18" s="10">
+        <v>30000</v>
+      </c>
+      <c r="B18" s="11">
+        <v>0.52643754886000005</v>
+      </c>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A19" s="10">
+        <v>32000</v>
+      </c>
+      <c r="B19" s="11">
+        <v>0.56520464108000001</v>
+      </c>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A20" s="10">
+        <v>34000</v>
+      </c>
+      <c r="B20" s="11">
+        <v>0.60397173329999998</v>
+      </c>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A21" s="10">
+        <v>36000</v>
+      </c>
+      <c r="B21" s="11">
+        <v>0.64273882551999995</v>
+      </c>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A22" s="10">
+        <v>38000</v>
+      </c>
+      <c r="B22" s="11">
+        <v>0.68150591774000002</v>
+      </c>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A23" s="10">
+        <v>40000</v>
+      </c>
+      <c r="B23" s="11">
+        <v>0.72027300995999999</v>
+      </c>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A24" s="10">
+        <v>42000</v>
+      </c>
+      <c r="B24" s="11">
+        <v>0.75904010217999995</v>
+      </c>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A35" s="10"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A38" s="10"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A39" s="10"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A41" s="10"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A43" s="10"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A44" s="10"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A45" s="10"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A46" s="10"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A47" s="10"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A48" s="10"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A49" s="10"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A50" s="10"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A51" s="10"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A52" s="10"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A53" s="10"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A54" s="10"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A55" s="10"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A56" s="10"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A57" s="10"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A58" s="10"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A59" s="10"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A60" s="10"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A61" s="10"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A62" s="10"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A63" s="10"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A64" s="10"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A65" s="10"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A66" s="10"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A67" s="10"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A68" s="10"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A69" s="10"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A70" s="10"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A71" s="10"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A72" s="10"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A73" s="10"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A74" s="10"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A75" s="10"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="3"/>
+    </row>
+    <row r="76" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A76" s="10"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="3"/>
+    </row>
+    <row r="77" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A77" s="10"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A78" s="10"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A79" s="10"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="3"/>
+    </row>
+    <row r="80" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A80" s="10"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A81" s="10"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="3"/>
+    </row>
+    <row r="82" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A82" s="10"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A83" s="10"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A84" s="10"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="3"/>
+    </row>
+    <row r="85" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A85" s="10"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="3"/>
+    </row>
+    <row r="86" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A86" s="10"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="3"/>
+    </row>
+    <row r="87" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A87" s="10"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="3"/>
+    </row>
+    <row r="88" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A88" s="10"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="3"/>
+    </row>
+    <row r="89" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A89" s="10"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="3"/>
+    </row>
+    <row r="90" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A90" s="10"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="3"/>
+    </row>
+    <row r="91" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A91" s="10"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="3"/>
+    </row>
+    <row r="92" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A92" s="10"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A93" s="10"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="3"/>
+    </row>
+    <row r="94" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A94" s="10"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="3"/>
+    </row>
+    <row r="95" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A95" s="10"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A96" s="10"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="3"/>
+    </row>
+    <row r="97" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A97" s="10"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="3"/>
+    </row>
+    <row r="98" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A98" s="10"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="3"/>
+    </row>
+    <row r="99" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A99" s="10"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="3"/>
+    </row>
+    <row r="100" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A100" s="10"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="3"/>
+    </row>
+    <row r="101" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A101" s="10"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="3"/>
+    </row>
+    <row r="102" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A102" s="10"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="3"/>
+    </row>
+    <row r="103" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A103" s="10"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="3"/>
+    </row>
+    <row r="104" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A104" s="10"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="3"/>
+    </row>
+    <row r="105" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A105" s="10"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="3"/>
+    </row>
+    <row r="106" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A106" s="10"/>
+      <c r="B106" s="11"/>
+      <c r="C106" s="3"/>
+    </row>
+    <row r="107" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A107" s="10"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="3"/>
+    </row>
+    <row r="108" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A108" s="10"/>
+      <c r="B108" s="11"/>
+      <c r="C108" s="3"/>
+    </row>
+    <row r="109" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A109" s="10"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="3"/>
+    </row>
+    <row r="110" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A110" s="10"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="3"/>
+    </row>
+    <row r="111" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A111" s="10"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="3"/>
+    </row>
+    <row r="112" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A112" s="10"/>
+      <c r="B112" s="11"/>
+      <c r="C112" s="3"/>
+    </row>
+    <row r="113" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A113" s="10"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="3"/>
+    </row>
+    <row r="114" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A114" s="10"/>
+      <c r="B114" s="11"/>
+      <c r="C114" s="3"/>
+    </row>
+    <row r="115" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A115" s="10"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="3"/>
+    </row>
+    <row r="116" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A116" s="10"/>
+      <c r="B116" s="11"/>
+      <c r="C116" s="3"/>
+    </row>
+    <row r="117" spans="1:3" ht="15" thickBot="1">
+      <c r="A117" s="3"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="3"/>
+    </row>
+    <row r="118" spans="1:3" ht="15" thickBot="1">
+      <c r="A118" s="3"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="3"/>
+    </row>
+    <row r="119" spans="1:3" ht="15" thickBot="1">
+      <c r="A119" s="3"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="3"/>
+    </row>
+    <row r="120" spans="1:3" ht="15" thickBot="1">
+      <c r="A120" s="3"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="3"/>
+    </row>
+    <row r="121" spans="1:3" ht="15" thickBot="1">
+      <c r="A121" s="3"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="3"/>
+    </row>
+    <row r="122" spans="1:3" ht="15" thickBot="1">
+      <c r="A122" s="3"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="3"/>
+    </row>
+    <row r="123" spans="1:3" ht="15" thickBot="1">
+      <c r="A123" s="3"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="3"/>
+    </row>
+    <row r="124" spans="1:3" ht="15" thickBot="1">
+      <c r="A124" s="3"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="3"/>
+    </row>
+    <row r="125" spans="1:3" ht="15" thickBot="1">
+      <c r="A125" s="3"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="3"/>
+    </row>
+    <row r="126" spans="1:3" ht="15" thickBot="1">
+      <c r="A126" s="3"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="3"/>
+    </row>
+    <row r="127" spans="1:3" ht="15" thickBot="1">
+      <c r="A127" s="3"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="3"/>
+    </row>
+    <row r="128" spans="1:3" ht="15" thickBot="1">
+      <c r="A128" s="3"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="3"/>
+    </row>
+    <row r="129" spans="1:3" ht="15" thickBot="1">
+      <c r="A129" s="3"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="3"/>
+    </row>
+    <row r="130" spans="1:3" ht="15" thickBot="1">
+      <c r="A130" s="3"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="3"/>
+    </row>
+    <row r="131" spans="1:3" ht="15" thickBot="1">
+      <c r="A131" s="3"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="3"/>
+    </row>
+    <row r="132" spans="1:3" ht="15" thickBot="1">
+      <c r="A132" s="3"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="3"/>
+    </row>
+    <row r="133" spans="1:3" ht="15" thickBot="1">
+      <c r="A133" s="3"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="3"/>
+    </row>
+    <row r="134" spans="1:3" ht="15" thickBot="1">
+      <c r="A134" s="3"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="3"/>
+    </row>
+    <row r="135" spans="1:3" ht="15" thickBot="1">
+      <c r="A135" s="3"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="3"/>
+    </row>
+    <row r="136" spans="1:3" ht="15" thickBot="1">
+      <c r="A136" s="3"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="3"/>
+    </row>
+    <row r="137" spans="1:3" ht="15" thickBot="1">
+      <c r="A137" s="3"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="3"/>
+    </row>
+    <row r="138" spans="1:3" ht="15" thickBot="1">
+      <c r="A138" s="3"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="3"/>
+    </row>
+    <row r="139" spans="1:3" ht="15" thickBot="1">
+      <c r="A139" s="3"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="3"/>
+    </row>
+    <row r="140" spans="1:3" ht="15" thickBot="1">
+      <c r="A140" s="3"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="3"/>
+    </row>
+    <row r="141" spans="1:3" ht="15" thickBot="1">
+      <c r="A141" s="3"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="3"/>
+    </row>
+    <row r="142" spans="1:3" ht="15" thickBot="1">
+      <c r="A142" s="3"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="3"/>
+    </row>
+    <row r="143" spans="1:3" ht="15" thickBot="1">
+      <c r="A143" s="3"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="3"/>
+    </row>
+    <row r="144" spans="1:3" ht="15" thickBot="1">
+      <c r="A144" s="3"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="3"/>
+    </row>
+    <row r="145" spans="1:3" ht="15" thickBot="1">
+      <c r="A145" s="3"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="3"/>
+    </row>
+    <row r="146" spans="1:3" ht="15" thickBot="1">
+      <c r="A146" s="3"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="3"/>
+    </row>
+    <row r="147" spans="1:3" ht="15" thickBot="1">
+      <c r="A147" s="3"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="3"/>
+    </row>
+    <row r="148" spans="1:3" ht="15" thickBot="1">
+      <c r="A148" s="3"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="3"/>
+    </row>
+    <row r="149" spans="1:3" ht="15" thickBot="1">
+      <c r="A149" s="3"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="3"/>
+    </row>
+    <row r="150" spans="1:3" ht="15" thickBot="1">
+      <c r="A150" s="3"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="3"/>
+    </row>
+    <row r="151" spans="1:3" ht="15" thickBot="1">
+      <c r="A151" s="3"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="3"/>
+    </row>
+    <row r="152" spans="1:3" ht="15" thickBot="1">
+      <c r="A152" s="3"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="3"/>
+    </row>
+    <row r="153" spans="1:3" ht="15" thickBot="1">
+      <c r="A153" s="3"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="3"/>
+    </row>
+    <row r="154" spans="1:3" ht="15" thickBot="1">
+      <c r="A154" s="3"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="3"/>
+    </row>
+    <row r="155" spans="1:3" ht="15" thickBot="1">
+      <c r="A155" s="3"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="3"/>
+    </row>
+    <row r="156" spans="1:3" ht="15" thickBot="1">
+      <c r="A156" s="3"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="3"/>
+    </row>
+    <row r="157" spans="1:3" ht="15" thickBot="1">
+      <c r="A157" s="3"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="3"/>
+    </row>
+    <row r="158" spans="1:3" ht="15" thickBot="1">
+      <c r="A158" s="3"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="3"/>
+    </row>
+    <row r="159" spans="1:3" ht="15" thickBot="1">
+      <c r="A159" s="3"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="3"/>
+    </row>
+    <row r="160" spans="1:3" ht="15" thickBot="1">
+      <c r="A160" s="3"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1"/>
+    <row r="2" spans="1:3" ht="15" thickBot="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="15" thickBot="1">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" ht="15" thickBot="1">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickBot="1">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" ht="15" thickBot="1">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1"/>
+    <row r="11" spans="1:3" ht="15" thickBot="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" thickBot="1">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" ht="15" thickBot="1">
+      <c r="A13" s="3">
+        <v>1315</v>
+      </c>
+      <c r="B13" s="4">
+        <v>3.4202000000000003E-2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>7.5084999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1">
+      <c r="A14" s="3">
+        <v>2074</v>
+      </c>
+      <c r="B14" s="4">
+        <v>5.6045999999999999E-2</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.119162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" thickBot="1">
+      <c r="A15" s="3">
+        <v>3170</v>
+      </c>
+      <c r="B15" s="4">
+        <v>8.3795999999999995E-2</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.182477</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" thickBot="1">
+      <c r="A16" s="3">
+        <v>4402</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.11471099999999999</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.24064099999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" thickBot="1">
+      <c r="A17" s="3">
+        <v>5478</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.13805000000000001</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.28056999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1">
+      <c r="A18" s="3">
+        <v>5802</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.15315000000000001</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.32287399999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" thickBot="1">
+      <c r="A19" s="3">
+        <v>6638</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.16986200000000001</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.37455899999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1">
+      <c r="A20" s="3">
+        <v>7598</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.18885299999999999</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.41161900000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1">
+      <c r="A21" s="3">
+        <v>8492</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.20807100000000001</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.47430600000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1">
+      <c r="A22" s="3">
+        <v>9517</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.23815</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.530941</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" thickBot="1">
+      <c r="A23" s="3">
+        <v>11719</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0.28691299999999997</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.62105100000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" thickBot="1">
+      <c r="A24" s="3">
+        <v>14039</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.34822399999999998</v>
+      </c>
+      <c r="C24" s="22">
+        <v>0.70398942320000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" thickBot="1"/>
+    <row r="28" spans="1:4" ht="15" thickBot="1">
+      <c r="D28" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" thickBot="1">
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" ht="15" thickBot="1">
+      <c r="C30" s="3">
+        <v>1315</v>
+      </c>
+      <c r="D30" s="12">
+        <v>1.0189999999999999E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" thickBot="1">
+      <c r="C31" s="3">
+        <v>2074</v>
+      </c>
+      <c r="D31" s="13">
+        <v>1.062E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" thickBot="1">
+      <c r="C32" s="3">
+        <v>3170</v>
+      </c>
+      <c r="D32" s="14">
+        <v>1.098E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" ht="15" thickBot="1">
+      <c r="C33" s="3">
+        <v>4402</v>
+      </c>
+      <c r="D33" s="15">
+        <v>1.145E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" ht="15" thickBot="1">
+      <c r="C34" s="3">
+        <v>5478</v>
+      </c>
+      <c r="D34" s="16">
+        <v>1.354E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" ht="15" thickBot="1">
+      <c r="C35" s="3">
+        <v>5802</v>
+      </c>
+      <c r="D35" s="16">
+        <v>1.683E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" ht="15" thickBot="1">
+      <c r="C36" s="3">
+        <v>6638</v>
+      </c>
+      <c r="D36" s="18">
+        <v>2.1540000000000001E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" ht="15" thickBot="1">
+      <c r="C37" s="3">
+        <v>7598</v>
+      </c>
+      <c r="D37" s="19">
+        <v>2.5409999999999999E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" ht="15" thickBot="1">
+      <c r="C38" s="3">
+        <v>8492</v>
+      </c>
+      <c r="D38" s="20">
+        <v>2.967E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" ht="15" thickBot="1">
+      <c r="C39" s="3">
+        <v>9517</v>
+      </c>
+      <c r="D39" s="21">
+        <v>3.532E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" ht="15" thickBot="1">
+      <c r="C40" s="3">
+        <v>11719</v>
+      </c>
+      <c r="D40" s="17">
+        <v>4.4640000000000001E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" ht="15" thickBot="1">
+      <c r="C41" s="3">
+        <v>14039</v>
+      </c>
+      <c r="D41" s="17">
+        <v>5.1180000000000002E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4">
+      <c r="C42" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
